--- a/文档/后台功能模块.xlsx
+++ b/文档/后台功能模块.xlsx
@@ -141,16 +141,16 @@
     <t>戴广泽</t>
   </si>
   <si>
+    <t>list_article</t>
+  </si>
+  <si>
+    <t>文章分类</t>
+  </si>
+  <si>
+    <t>林丰浩</t>
+  </si>
+  <si>
     <t>list_article_category</t>
-  </si>
-  <si>
-    <t>文章分类</t>
-  </si>
-  <si>
-    <t>林丰浩</t>
-  </si>
-  <si>
-    <t>list_article</t>
   </si>
   <si>
     <t>系统管理</t>
@@ -212,10 +212,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -288,29 +288,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -318,6 +295,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -326,59 +342,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,25 +401,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,6 +418,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -446,13 +446,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,13 +506,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,133 +602,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,6 +637,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -655,20 +675,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,17 +699,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,27 +723,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -745,10 +745,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,133 +757,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1341,7 +1341,6 @@
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1641,7 +1640,6 @@
     </row>
     <row r="18" spans="3:9">
       <c r="C18" s="10"/>
-      <c r="D18" s="3"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -1660,16 +1658,10 @@
     </row>
     <row r="23" spans="3:7">
       <c r="C23" s="10"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="3:7">
       <c r="C24" s="10"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="3:3">

--- a/文档/后台功能模块.xlsx
+++ b/文档/后台功能模块.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8100" tabRatio="869"/>
+    <workbookView windowWidth="23040" windowHeight="9347" tabRatio="869"/>
   </bookViews>
   <sheets>
     <sheet name="功能清单" sheetId="5" r:id="rId1"/>
@@ -212,10 +212,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -287,6 +287,65 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -295,9 +354,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,91 +363,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -401,31 +385,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,25 +446,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,157 +608,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,6 +637,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -661,6 +676,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -675,17 +705,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,30 +719,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,10 +745,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,133 +757,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1283,20 +1283,20 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.37962962962963" style="3" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="28.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.8796296296296" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="16.2" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1704,17 +1704,17 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.8796296296296" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="16.2" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>55</v>
       </c>

--- a/文档/后台功能模块.xlsx
+++ b/文档/后台功能模块.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8100" tabRatio="869"/>
+    <workbookView windowWidth="22488" windowHeight="9347" tabRatio="869"/>
   </bookViews>
   <sheets>
     <sheet name="功能清单" sheetId="5" r:id="rId1"/>
@@ -212,8 +212,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -287,7 +287,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -295,18 +331,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -318,109 +378,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -446,13 +446,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,163 +506,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,6 +637,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -660,24 +669,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,17 +703,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -737,6 +717,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -745,10 +745,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,133 +757,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1280,23 +1280,23 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.37962962962963" style="3" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="28.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.8796296296296" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="16.2" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1341,7 +1341,6 @@
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1641,7 +1640,6 @@
     </row>
     <row r="18" spans="3:9">
       <c r="C18" s="10"/>
-      <c r="D18" s="3"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -1660,16 +1658,10 @@
     </row>
     <row r="23" spans="3:7">
       <c r="C23" s="10"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="3:7">
       <c r="C24" s="10"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="3:3">
@@ -1712,17 +1704,17 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.8796296296296" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="16.2" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>55</v>
       </c>

--- a/文档/后台功能模块.xlsx
+++ b/文档/后台功能模块.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="8100" tabRatio="869"/>
+    <workbookView windowWidth="22488" windowHeight="9347" tabRatio="869"/>
   </bookViews>
   <sheets>
     <sheet name="功能清单" sheetId="5" r:id="rId1"/>
@@ -213,9 +213,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -288,108 +288,34 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -401,9 +327,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,6 +342,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -424,8 +393,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,37 +446,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,139 +572,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,22 +640,41 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,35 +694,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,17 +718,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,10 +745,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,133 +757,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1280,23 +1280,23 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.37962962962963" style="3" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="28.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.8796296296296" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="16.2" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1704,17 +1704,17 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.8796296296296" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="16.2" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>55</v>
       </c>

--- a/文档/后台功能模块.xlsx
+++ b/文档/后台功能模块.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347" tabRatio="869"/>
+    <workbookView windowWidth="19200" windowHeight="8100" tabRatio="869"/>
   </bookViews>
   <sheets>
     <sheet name="功能清单" sheetId="5" r:id="rId1"/>
@@ -212,10 +212,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -287,6 +287,66 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -295,7 +355,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,67 +416,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -378,52 +424,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -446,181 +446,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,15 +637,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -660,45 +651,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,11 +672,50 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,6 +728,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -745,10 +745,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,133 +757,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1280,23 +1280,23 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.37962962962963" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.38333333333333" style="3" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="28.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.8796296296296" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.8833333333333" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.2" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1704,17 +1704,17 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.8796296296296" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.8833333333333" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.2" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>55</v>
       </c>

--- a/文档/后台功能模块.xlsx
+++ b/文档/后台功能模块.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347" tabRatio="869"/>
+    <workbookView windowWidth="19200" windowHeight="8100" tabRatio="869"/>
   </bookViews>
   <sheets>
     <sheet name="功能清单" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
   <si>
     <t>功能模块</t>
   </si>
@@ -30,6 +30,9 @@
     <t>开发人员</t>
   </si>
   <si>
+    <t>难度</t>
+  </si>
+  <si>
     <t>需登录</t>
   </si>
   <si>
@@ -39,9 +42,6 @@
     <t>说明</t>
   </si>
   <si>
-    <t>难度</t>
-  </si>
-  <si>
     <t>前端/人天</t>
   </si>
   <si>
@@ -57,15 +57,15 @@
     <t>张嘉武</t>
   </si>
   <si>
+    <t>中</t>
+  </si>
+  <si>
     <t>是</t>
   </si>
   <si>
     <t>list_venue</t>
   </si>
   <si>
-    <t>一般</t>
-  </si>
-  <si>
     <t>加盟商</t>
   </si>
   <si>
@@ -78,6 +78,9 @@
     <t>黄嘉萍</t>
   </si>
   <si>
+    <t>难</t>
+  </si>
+  <si>
     <t>list_match</t>
   </si>
   <si>
@@ -150,7 +153,16 @@
     <t>林丰浩</t>
   </si>
   <si>
+    <t>简单</t>
+  </si>
+  <si>
     <t>list_article_category</t>
+  </si>
+  <si>
+    <t>地区管理</t>
+  </si>
+  <si>
+    <t>list_area</t>
   </si>
   <si>
     <t>系统管理</t>
@@ -212,9 +224,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -295,30 +307,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -327,8 +315,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,6 +406,22 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -351,81 +429,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,175 +470,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,6 +667,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -670,11 +709,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,30 +741,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -728,15 +749,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -748,7 +760,7 @@
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,133 +769,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1280,23 +1292,23 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.37962962962963" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="28.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.8796296296296" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.38333333333333" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.8833333333333" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.2" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1341,14 +1353,14 @@
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1358,10 +1370,10 @@
       <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1376,12 +1388,14 @@
         <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1391,18 +1405,20 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1412,18 +1428,20 @@
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1433,78 +1451,84 @@
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" customFormat="1" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" customFormat="1" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" customFormat="1" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1512,53 +1536,61 @@
     </row>
     <row r="11" customFormat="1" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" customFormat="1" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" customFormat="1" spans="1:9">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="B13" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="C13" s="8"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1576,71 +1608,75 @@
     </row>
     <row r="15" s="2" customFormat="1" spans="1:9">
       <c r="A15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="3" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="3:9">
       <c r="C18" s="10"/>
-      <c r="G18" s="7"/>
+      <c r="D18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
@@ -1656,13 +1692,13 @@
     <row r="22" spans="3:3">
       <c r="C22" s="10"/>
     </row>
-    <row r="23" spans="3:7">
+    <row r="23" spans="3:4">
       <c r="C23" s="10"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="3:7">
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="3:4">
       <c r="C24" s="10"/>
-      <c r="G24" s="7"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="10"/>
@@ -1670,18 +1706,18 @@
     <row r="26" spans="3:3">
       <c r="C26" s="10"/>
     </row>
-    <row r="27" spans="7:9">
-      <c r="G27" s="7"/>
+    <row r="27" spans="4:9">
+      <c r="D27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="7:9">
-      <c r="G28" s="7"/>
+    <row r="28" spans="4:9">
+      <c r="D28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="30" spans="7:9">
-      <c r="G30" s="7"/>
+    <row r="30" spans="4:9">
+      <c r="D30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
@@ -1704,54 +1740,54 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.8796296296296" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.8833333333333" style="3" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.2" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="6:6">

--- a/文档/后台功能模块.xlsx
+++ b/文档/后台功能模块.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
   <si>
     <t>功能模块</t>
   </si>
@@ -33,6 +33,9 @@
     <t>难度</t>
   </si>
   <si>
+    <t>前端/人天</t>
+  </si>
+  <si>
     <t>需登录</t>
   </si>
   <si>
@@ -40,9 +43,6 @@
   </si>
   <si>
     <t>说明</t>
-  </si>
-  <si>
-    <t>前端/人天</t>
   </si>
   <si>
     <t>后端/人天</t>
@@ -224,10 +224,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -300,6 +300,96 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -315,129 +405,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,25 +458,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,13 +560,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,7 +596,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,103 +614,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,30 +649,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -695,6 +671,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -704,6 +695,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -724,21 +730,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -749,6 +740,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -757,10 +757,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -769,137 +769,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -933,8 +933,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1292,7 +1301,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1301,10 +1310,10 @@
     <col min="2" max="2" width="24.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.38333333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="28.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.8833333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.25" style="11" customWidth="1"/>
+    <col min="6" max="6" width="6.38333333333333" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="28.5" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1321,7 +1330,7 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -1337,7 +1346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1350,30 +1359,30 @@
       <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="11">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1390,13 +1399,15 @@
       <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="11">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
@@ -1413,13 +1424,15 @@
       <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="11">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
@@ -1436,13 +1449,15 @@
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
@@ -1459,13 +1474,15 @@
       <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
@@ -1482,13 +1499,15 @@
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
@@ -1505,13 +1524,15 @@
       <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
@@ -1519,17 +1540,17 @@
       <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1547,13 +1568,15 @@
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
@@ -1570,28 +1593,30 @@
       <c r="D12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" customFormat="1" spans="1:9">
       <c r="A13" s="3"/>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
@@ -1600,7 +1625,7 @@
       <c r="B14" s="3"/>
       <c r="C14" s="8"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1619,13 +1644,15 @@
       <c r="D15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
@@ -1642,13 +1669,15 @@
       <c r="D16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9">
@@ -1661,23 +1690,27 @@
       <c r="C17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="3:9">
       <c r="C18" s="10"/>
       <c r="D18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="E18" s="14"/>
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="3:3">
@@ -1708,17 +1741,17 @@
     </row>
     <row r="27" spans="4:9">
       <c r="D27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="E27" s="14"/>
       <c r="I27" s="7"/>
     </row>
     <row r="28" spans="4:9">
       <c r="D28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="E28" s="14"/>
       <c r="I28" s="7"/>
     </row>
     <row r="30" spans="4:9">
       <c r="D30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="E30" s="14"/>
       <c r="I30" s="7"/>
     </row>
   </sheetData>

--- a/文档/后台功能模块.xlsx
+++ b/文档/后台功能模块.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
   <si>
     <t>功能模块</t>
   </si>
@@ -225,9 +225,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -299,6 +299,66 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -307,91 +367,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,9 +399,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,21 +416,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,25 +458,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,144 +626,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -633,12 +639,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,8 +664,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,6 +685,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -695,21 +706,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -730,13 +726,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,8 +744,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,10 +757,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -769,133 +769,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1301,7 +1301,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1606,7 +1606,9 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" customFormat="1" spans="1:9">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="B13" s="13" t="s">
         <v>46</v>
       </c>
